--- a/Fase 2/Evidencias Proyecto/Product Backlog Sprint BurnDown.xlsx
+++ b/Fase 2/Evidencias Proyecto/Product Backlog Sprint BurnDown.xlsx
@@ -8,19 +8,19 @@
     <sheet state="visible" name="Sprint BurnDown" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Sprint BurnDown'!$A$1:$H$13</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Sprint BurnDown'!$A$1:$H$12</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="0TiquBeVrmKGwWcHWYRPLF6cs+0KRbetVeJHriCRn0U="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="IRPJ2UyV3aydx7cVR/sS+Btc9S2L6EV5WTHsftMylZI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -37,22 +37,22 @@
     <t>Lanzamiento y uso de cartas en el juego</t>
   </si>
   <si>
-    <t>HU1</t>
+    <t>HS-0001</t>
   </si>
   <si>
-    <t>Como un jugador, necesito lanzar hechizos desde mi mano, con la finalidad de infligir daño a los esbirros del oponente o defenderme de ataques.</t>
+    <t>Como un jugador, necesito poder jugar una carta de mi mano con la finalidad de atacar al oponente o ganar recursos.</t>
   </si>
   <si>
-    <t>HU2</t>
+    <t>HS-0005</t>
   </si>
   <si>
-    <t>Como un jugador, necesito utilizar cartas de apoyo para mejorar las habilidades de mis esbirros, con la finalidad de obtener ventaja en combate.</t>
+    <t>Como un jugador, necesito poder usar cartas de hechizo para alterar el estado del tablero con la finalidad de afectar a los esbirros o recursos del oponente.</t>
   </si>
   <si>
-    <t>HU3</t>
+    <t>HS-0007</t>
   </si>
   <si>
-    <t>Como un jugador, necesito gestionar mis recursos en cada turno, con la finalidad de optimizar el uso de mis cartas y ser más efectivo.</t>
+    <t>Como un jugador, necesito poder equipar cartas de equipamiento a mis esbirros con la finalidad de mejorar sus estadísticas o añadir habilidades.</t>
   </si>
   <si>
     <t>EPICA 2</t>
@@ -61,22 +61,22 @@
     <t>Gestión y control del tablero</t>
   </si>
   <si>
-    <t>HU4</t>
+    <t>HS-0003</t>
   </si>
   <si>
-    <t>Como un jugador, necesito organizar el tablero de manera que las cartas estén claramente distribuidas, con la finalidad de planificar estrategias.</t>
+    <t>Como un jugador, necesito atacar con mis esbirros automáticamente con la finalidad de infligir daño al oponente y agotar su mazo.</t>
   </si>
   <si>
-    <t>HU5</t>
+    <t>HS-0006</t>
   </si>
   <si>
-    <t>Como un jugador, necesito que los esbirros ataquen automáticamente al final de mi turno, con la finalidad de infligir daño o eliminar esbirros.</t>
+    <t>Como un jugador, necesito poder ver una interfaz clara del tablero de juego con la finalidad de tomar decisiones informadas durante el duelo.</t>
   </si>
   <si>
-    <t>HU6</t>
+    <t>HS-0011</t>
   </si>
   <si>
-    <t>Como un jugador, necesito invocar esbirros en el campo de batalla, con la finalidad de atacar al oponente o defenderme de sus ataques.</t>
+    <t>Como un jugador, necesito ver claramente el estado de mis esbirros y los del oponente en el tablero con la finalidad de tomar decisiones estratégicas durante el duelo.</t>
   </si>
   <si>
     <t>EPICA 3</t>
@@ -85,16 +85,10 @@
     <t>Manejo de condiciones especiales</t>
   </si>
   <si>
-    <t>HU7</t>
+    <t>HS-0009</t>
   </si>
   <si>
-    <t>Como un jugador, necesito recibir una penalización al perder todas mis cartas, con la finalidad de incrementar el desafío del juego.</t>
-  </si>
-  <si>
-    <t>HU8</t>
-  </si>
-  <si>
-    <t>Como un jugador, necesito robar una carta automáticamente al inicio de mi turno, con la finalidad de tener nuevas opciones de juego.</t>
+    <t>Como un jugador, necesito recibir una penalización al perder todas mis cartas con la finalidad de incrementar el desafío del juego.</t>
   </si>
   <si>
     <t>EPICA 4</t>
@@ -103,16 +97,10 @@
     <t>Selección de cartas y estrategias</t>
   </si>
   <si>
-    <t>HU9</t>
+    <t>HS-0010</t>
   </si>
   <si>
-    <t>Como un jugador, necesito seleccionar cartas desde mi mazo para iniciar la partida, con la finalidad de personalizar mi estrategia.</t>
-  </si>
-  <si>
-    <t>HU10</t>
-  </si>
-  <si>
-    <t>Como un jugador, necesito ver el estado de mis esbirros y los del oponente en el tablero, con la finalidad de tomar decisiones estratégicas.</t>
+    <t>Como un jugador, necesito poder seleccionar cartas desde mi mazo para iniciar la partida con la finalidad de personalizar mi estrategia desde el inicio.</t>
   </si>
   <si>
     <t>EPICA 5</t>
@@ -121,10 +109,28 @@
     <t>Control del flujo del turno y juego</t>
   </si>
   <si>
-    <t>HU11</t>
+    <t>HS-0002</t>
   </si>
   <si>
-    <t>Como un jugador, necesito terminar mi turno cuando ya no tenga más acciones posibles, con la finalidad de pasar el control al oponente.</t>
+    <t xml:space="preserve"> Como un jugador, necesito robar una carta al inicio de mi turno con la finalidad de tener más opciones para jugar.</t>
+  </si>
+  <si>
+    <t>HS-0004</t>
+  </si>
+  <si>
+    <t>Como un jugador, necesito gestionar mis recursos (monedas de plata) en cada turno con la finalidad de desplegar cartas y realizar acciones estratégicas.</t>
+  </si>
+  <si>
+    <t>HS-0008</t>
+  </si>
+  <si>
+    <t>Como un jugador, necesito que los esbirros ataquen automáticamente al final de mi turno con la finalidad de infligir daño al oponente o eliminar sus esbirros.</t>
+  </si>
+  <si>
+    <t>HS-0012</t>
+  </si>
+  <si>
+    <t>Como un jugador, necesito terminar mi turno cuando ya no tenga más acciones posibles con la finalidad de pasar el control al oponente.</t>
   </si>
   <si>
     <t>EPICA</t>
@@ -169,16 +175,13 @@
     <t>T2</t>
   </si>
   <si>
-    <t>Equilibrar el daño de los hechizos</t>
-  </si>
-  <si>
-    <t>Incompleto</t>
+    <t>Equilibrar los efectos de las cartas</t>
   </si>
   <si>
     <t>T3</t>
   </si>
   <si>
-    <t>Diseño de las cartas</t>
+    <t>Diseñar efectos de cartas de hechizo</t>
   </si>
   <si>
     <t>Gervasio</t>
@@ -187,7 +190,7 @@
     <t>T4</t>
   </si>
   <si>
-    <t>Implementar un sistema de mejora</t>
+    <t>Implementar mecánicas para cartas de hechizo</t>
   </si>
   <si>
     <t>Mauricio</t>
@@ -196,97 +199,64 @@
     <t>T5</t>
   </si>
   <si>
-    <t>Desarrollar una interfaz para seleccionar cartas de apoyo</t>
+    <t>Desarrollar un sistema de recursos</t>
   </si>
   <si>
     <t>T6</t>
   </si>
   <si>
-    <t>Desarrollar un sistema de recursos</t>
+    <t>Programar ataques automáticos de esbirros</t>
   </si>
   <si>
     <t>T7</t>
   </si>
   <si>
-    <t>Realizar pruebas de equilibrio de recursos</t>
-  </si>
-  <si>
-    <t>Gervacio</t>
+    <t>Añadir animaciones de ataque</t>
   </si>
   <si>
     <t>T8</t>
   </si>
   <si>
-    <t>Diseñar un layout de tablero</t>
+    <t>Diseñar y desarrollar la interfaz del tablero</t>
+  </si>
+  <si>
+    <t>Como un jugador, necesito recibir una penalización al perder todas mis cartas, con la finalidad de incrementar el desafío del juego.</t>
   </si>
   <si>
     <t>T9</t>
   </si>
   <si>
-    <t>Implementar etiquetas y separación visual</t>
+    <t>Definir la mecánica de penalización</t>
   </si>
   <si>
     <t>T10</t>
   </si>
   <si>
-    <t>Programar la mecánica de ataque automático</t>
+    <t>Diseñar el flujo para la selección inicial</t>
+  </si>
+  <si>
+    <t>Como un jugador, necesito robar una carta al inicio de mi turno con la finalidad de tener más opciones para jugar.</t>
   </si>
   <si>
     <t>T11</t>
   </si>
   <si>
-    <t>Añadir animaciones para ataques automáticos</t>
-  </si>
-  <si>
-    <t>Gervacion</t>
+    <t>Implementar la mecánica de robo automático</t>
   </si>
   <si>
     <t>T12</t>
   </si>
   <si>
-    <t>Crear un sistema de invocación</t>
+    <t>Mostrar la carta robada en la interfaz</t>
   </si>
   <si>
     <t>T13</t>
   </si>
   <si>
-    <t>Definir la mecánica de penalización</t>
+    <t>Implementar la lógica de fin de turno</t>
   </si>
   <si>
     <t>T14</t>
-  </si>
-  <si>
-    <t>Implementar mecánica de robo de cartas</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>Mostrar la carta robada en la interfaz</t>
-  </si>
-  <si>
-    <t>Diseñar la selección de cartas iniciales</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>Crear una interfaz de estado</t>
-  </si>
-  <si>
-    <t>T17</t>
-  </si>
-  <si>
-    <t>Diseñar un sistema de alertas</t>
-  </si>
-  <si>
-    <t>T18</t>
-  </si>
-  <si>
-    <t>Implementar la lógica de fin de turno</t>
-  </si>
-  <si>
-    <t>T19</t>
   </si>
   <si>
     <t>Diseñar un flujo de juego claro</t>
@@ -368,7 +338,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,24 +371,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -445,19 +409,11 @@
         <color rgb="FF000000"/>
       </top>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -489,7 +445,7 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
@@ -500,9 +456,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -511,7 +464,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -526,7 +479,12 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -536,25 +494,13 @@
     <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -782,7 +728,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="108.5"/>
+    <col customWidth="1" min="2" max="2" width="115.88"/>
     <col customWidth="1" min="3" max="3" width="8.38"/>
   </cols>
   <sheetData>
@@ -1122,15 +1068,13 @@
       <c r="W11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1153,13 +1097,15 @@
       <c r="W12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="8">
+        <v>3.0</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1182,15 +1128,13 @@
       <c r="W13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8">
-        <v>3.0</v>
-      </c>
+      <c r="C14" s="10"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1220,7 +1164,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1244,13 +1188,15 @@
       <c r="W15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="8">
+        <v>1.0</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1304,9 +1250,15 @@
       <c r="W17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.0</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1329,9 +1281,9 @@
       <c r="W18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1379,9 +1331,9 @@
       <c r="W20" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1406,7 +1358,7 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1431,7 +1383,7 @@
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -6403,56 +6355,8 @@
       <c r="V221" s="7"/>
       <c r="W221" s="7"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="14"/>
-      <c r="B222" s="15"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="7"/>
-      <c r="F222" s="7"/>
-      <c r="G222" s="7"/>
-      <c r="H222" s="7"/>
-      <c r="I222" s="7"/>
-      <c r="J222" s="7"/>
-      <c r="K222" s="7"/>
-      <c r="L222" s="7"/>
-      <c r="M222" s="7"/>
-      <c r="N222" s="7"/>
-      <c r="O222" s="7"/>
-      <c r="P222" s="7"/>
-      <c r="Q222" s="7"/>
-      <c r="R222" s="7"/>
-      <c r="S222" s="7"/>
-      <c r="T222" s="7"/>
-      <c r="U222" s="7"/>
-      <c r="V222" s="7"/>
-      <c r="W222" s="7"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="14"/>
-      <c r="B223" s="15"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="7"/>
-      <c r="F223" s="7"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="7"/>
-      <c r="I223" s="7"/>
-      <c r="J223" s="7"/>
-      <c r="K223" s="7"/>
-      <c r="L223" s="7"/>
-      <c r="M223" s="7"/>
-      <c r="N223" s="7"/>
-      <c r="O223" s="7"/>
-      <c r="P223" s="7"/>
-      <c r="Q223" s="7"/>
-      <c r="R223" s="7"/>
-      <c r="S223" s="7"/>
-      <c r="T223" s="7"/>
-      <c r="U223" s="7"/>
-      <c r="V223" s="7"/>
-      <c r="W223" s="7"/>
-    </row>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
@@ -7228,8 +7132,6 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7246,7 +7148,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.13"/>
-    <col customWidth="1" min="2" max="2" width="6.5"/>
+    <col customWidth="1" min="2" max="2" width="7.63"/>
     <col customWidth="1" min="3" max="3" width="108.5"/>
     <col customWidth="1" min="4" max="4" width="13.88"/>
     <col customWidth="1" min="5" max="5" width="9.5"/>
@@ -7256,32 +7158,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>43</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -7305,7 +7207,7 @@
       <c r="AC1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1.0</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7317,20 +7219,20 @@
       <c r="D2" s="8">
         <v>3.0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="24">
+      <c r="F2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="23">
         <v>5.0</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>47</v>
+      <c r="I2" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -7354,24 +7256,24 @@
       <c r="AC2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="H3" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -7395,15 +7297,15 @@
       <c r="AC3" s="7"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -7426,7 +7328,7 @@
       <c r="AC4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
@@ -7434,22 +7336,22 @@
         <v>8</v>
       </c>
       <c r="D5" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="23" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="24">
+      <c r="G5" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="23">
         <v>10.0</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>47</v>
+      <c r="I5" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -7473,24 +7375,24 @@
       <c r="AC5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="24">
+      <c r="G6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="23">
         <v>12.0</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>50</v>
+      <c r="I6" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -7514,25 +7416,15 @@
       <c r="AC6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -7554,16 +7446,32 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+    <row r="8">
+      <c r="A8" s="26"/>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -7586,31 +7494,15 @@
       <c r="AC8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="A9" s="26"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -7633,24 +7525,32 @@
       <c r="AC9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="25" t="s">
+      <c r="A10" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>50</v>
+      <c r="G10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -7674,15 +7574,25 @@
       <c r="AC10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="14"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="E11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -7705,33 +7615,15 @@
       <c r="AC11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>47</v>
-      </c>
+      <c r="A12" s="20"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -7753,25 +7645,31 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
     </row>
-    <row r="13">
-      <c r="A13" s="21"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="24">
-        <v>12.0</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>50</v>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -7794,16 +7692,16 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
     </row>
-    <row r="14">
-      <c r="A14" s="21"/>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="26"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -7826,30 +7724,32 @@
       <c r="AC14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14"/>
+      <c r="A15" s="20">
+        <v>3.0</v>
+      </c>
       <c r="B15" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D15" s="8">
         <v>3.0</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>50</v>
+      <c r="G15" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -7873,25 +7773,15 @@
       <c r="AC15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -7914,15 +7804,33 @@
       <c r="AC16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="A17" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -7945,31 +7853,15 @@
       <c r="AC17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="A18" s="20"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -7992,15 +7884,33 @@
       <c r="AC18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="A19" s="24">
+        <v>5.0</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -8023,15 +7933,25 @@
       <c r="AC19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="14"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -8054,33 +7974,15 @@
       <c r="AC20" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="A21" s="27"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -8103,15 +8005,31 @@
       <c r="AC21" s="7"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -8134,30 +8052,24 @@
       <c r="AC22" s="7"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="23" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>50</v>
+      <c r="F23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -8181,25 +8093,15 @@
       <c r="AC23" s="7"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -8222,15 +8124,15 @@
       <c r="AC24" s="7"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -8253,33 +8155,15 @@
       <c r="AC25" s="7"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -8302,15 +8186,15 @@
       <c r="AC26" s="7"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -8333,31 +8217,15 @@
       <c r="AC27" s="7"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -8380,25 +8248,15 @@
       <c r="AC28" s="7"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -8421,15 +8279,15 @@
       <c r="AC29" s="7"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -8452,33 +8310,15 @@
       <c r="AC30" s="7"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -8505,21 +8345,11 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -8546,11 +8376,11 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -8577,11 +8407,11 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -8608,11 +8438,11 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -8639,7 +8469,7 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -14617,347 +14447,17 @@
       <c r="AB228" s="7"/>
       <c r="AC228" s="7"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7"/>
-      <c r="I229" s="7"/>
-      <c r="J229" s="7"/>
-      <c r="K229" s="7"/>
-      <c r="L229" s="7"/>
-      <c r="M229" s="7"/>
-      <c r="N229" s="7"/>
-      <c r="O229" s="7"/>
-      <c r="P229" s="7"/>
-      <c r="Q229" s="7"/>
-      <c r="R229" s="7"/>
-      <c r="S229" s="7"/>
-      <c r="T229" s="7"/>
-      <c r="U229" s="7"/>
-      <c r="V229" s="7"/>
-      <c r="W229" s="7"/>
-      <c r="X229" s="7"/>
-      <c r="Y229" s="7"/>
-      <c r="Z229" s="7"/>
-      <c r="AA229" s="7"/>
-      <c r="AB229" s="7"/>
-      <c r="AC229" s="7"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="7"/>
-      <c r="J230" s="7"/>
-      <c r="K230" s="7"/>
-      <c r="L230" s="7"/>
-      <c r="M230" s="7"/>
-      <c r="N230" s="7"/>
-      <c r="O230" s="7"/>
-      <c r="P230" s="7"/>
-      <c r="Q230" s="7"/>
-      <c r="R230" s="7"/>
-      <c r="S230" s="7"/>
-      <c r="T230" s="7"/>
-      <c r="U230" s="7"/>
-      <c r="V230" s="7"/>
-      <c r="W230" s="7"/>
-      <c r="X230" s="7"/>
-      <c r="Y230" s="7"/>
-      <c r="Z230" s="7"/>
-      <c r="AA230" s="7"/>
-      <c r="AB230" s="7"/>
-      <c r="AC230" s="7"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
-      <c r="H231" s="7"/>
-      <c r="I231" s="7"/>
-      <c r="J231" s="7"/>
-      <c r="K231" s="7"/>
-      <c r="L231" s="7"/>
-      <c r="M231" s="7"/>
-      <c r="N231" s="7"/>
-      <c r="O231" s="7"/>
-      <c r="P231" s="7"/>
-      <c r="Q231" s="7"/>
-      <c r="R231" s="7"/>
-      <c r="S231" s="7"/>
-      <c r="T231" s="7"/>
-      <c r="U231" s="7"/>
-      <c r="V231" s="7"/>
-      <c r="W231" s="7"/>
-      <c r="X231" s="7"/>
-      <c r="Y231" s="7"/>
-      <c r="Z231" s="7"/>
-      <c r="AA231" s="7"/>
-      <c r="AB231" s="7"/>
-      <c r="AC231" s="7"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="4"/>
-      <c r="F232" s="7"/>
-      <c r="G232" s="7"/>
-      <c r="H232" s="7"/>
-      <c r="I232" s="7"/>
-      <c r="J232" s="7"/>
-      <c r="K232" s="7"/>
-      <c r="L232" s="7"/>
-      <c r="M232" s="7"/>
-      <c r="N232" s="7"/>
-      <c r="O232" s="7"/>
-      <c r="P232" s="7"/>
-      <c r="Q232" s="7"/>
-      <c r="R232" s="7"/>
-      <c r="S232" s="7"/>
-      <c r="T232" s="7"/>
-      <c r="U232" s="7"/>
-      <c r="V232" s="7"/>
-      <c r="W232" s="7"/>
-      <c r="X232" s="7"/>
-      <c r="Y232" s="7"/>
-      <c r="Z232" s="7"/>
-      <c r="AA232" s="7"/>
-      <c r="AB232" s="7"/>
-      <c r="AC232" s="7"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="4"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7"/>
-      <c r="I233" s="7"/>
-      <c r="J233" s="7"/>
-      <c r="K233" s="7"/>
-      <c r="L233" s="7"/>
-      <c r="M233" s="7"/>
-      <c r="N233" s="7"/>
-      <c r="O233" s="7"/>
-      <c r="P233" s="7"/>
-      <c r="Q233" s="7"/>
-      <c r="R233" s="7"/>
-      <c r="S233" s="7"/>
-      <c r="T233" s="7"/>
-      <c r="U233" s="7"/>
-      <c r="V233" s="7"/>
-      <c r="W233" s="7"/>
-      <c r="X233" s="7"/>
-      <c r="Y233" s="7"/>
-      <c r="Z233" s="7"/>
-      <c r="AA233" s="7"/>
-      <c r="AB233" s="7"/>
-      <c r="AC233" s="7"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="4"/>
-      <c r="F234" s="7"/>
-      <c r="G234" s="7"/>
-      <c r="H234" s="7"/>
-      <c r="I234" s="7"/>
-      <c r="J234" s="7"/>
-      <c r="K234" s="7"/>
-      <c r="L234" s="7"/>
-      <c r="M234" s="7"/>
-      <c r="N234" s="7"/>
-      <c r="O234" s="7"/>
-      <c r="P234" s="7"/>
-      <c r="Q234" s="7"/>
-      <c r="R234" s="7"/>
-      <c r="S234" s="7"/>
-      <c r="T234" s="7"/>
-      <c r="U234" s="7"/>
-      <c r="V234" s="7"/>
-      <c r="W234" s="7"/>
-      <c r="X234" s="7"/>
-      <c r="Y234" s="7"/>
-      <c r="Z234" s="7"/>
-      <c r="AA234" s="7"/>
-      <c r="AB234" s="7"/>
-      <c r="AC234" s="7"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="4"/>
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="H235" s="7"/>
-      <c r="I235" s="7"/>
-      <c r="J235" s="7"/>
-      <c r="K235" s="7"/>
-      <c r="L235" s="7"/>
-      <c r="M235" s="7"/>
-      <c r="N235" s="7"/>
-      <c r="O235" s="7"/>
-      <c r="P235" s="7"/>
-      <c r="Q235" s="7"/>
-      <c r="R235" s="7"/>
-      <c r="S235" s="7"/>
-      <c r="T235" s="7"/>
-      <c r="U235" s="7"/>
-      <c r="V235" s="7"/>
-      <c r="W235" s="7"/>
-      <c r="X235" s="7"/>
-      <c r="Y235" s="7"/>
-      <c r="Z235" s="7"/>
-      <c r="AA235" s="7"/>
-      <c r="AB235" s="7"/>
-      <c r="AC235" s="7"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="4"/>
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="H236" s="7"/>
-      <c r="I236" s="7"/>
-      <c r="J236" s="7"/>
-      <c r="K236" s="7"/>
-      <c r="L236" s="7"/>
-      <c r="M236" s="7"/>
-      <c r="N236" s="7"/>
-      <c r="O236" s="7"/>
-      <c r="P236" s="7"/>
-      <c r="Q236" s="7"/>
-      <c r="R236" s="7"/>
-      <c r="S236" s="7"/>
-      <c r="T236" s="7"/>
-      <c r="U236" s="7"/>
-      <c r="V236" s="7"/>
-      <c r="W236" s="7"/>
-      <c r="X236" s="7"/>
-      <c r="Y236" s="7"/>
-      <c r="Z236" s="7"/>
-      <c r="AA236" s="7"/>
-      <c r="AB236" s="7"/>
-      <c r="AC236" s="7"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7"/>
-      <c r="I237" s="7"/>
-      <c r="J237" s="7"/>
-      <c r="K237" s="7"/>
-      <c r="L237" s="7"/>
-      <c r="M237" s="7"/>
-      <c r="N237" s="7"/>
-      <c r="O237" s="7"/>
-      <c r="P237" s="7"/>
-      <c r="Q237" s="7"/>
-      <c r="R237" s="7"/>
-      <c r="S237" s="7"/>
-      <c r="T237" s="7"/>
-      <c r="U237" s="7"/>
-      <c r="V237" s="7"/>
-      <c r="W237" s="7"/>
-      <c r="X237" s="7"/>
-      <c r="Y237" s="7"/>
-      <c r="Z237" s="7"/>
-      <c r="AA237" s="7"/>
-      <c r="AB237" s="7"/>
-      <c r="AC237" s="7"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="4"/>
-      <c r="F238" s="7"/>
-      <c r="G238" s="7"/>
-      <c r="H238" s="7"/>
-      <c r="I238" s="7"/>
-      <c r="J238" s="7"/>
-      <c r="K238" s="7"/>
-      <c r="L238" s="7"/>
-      <c r="M238" s="7"/>
-      <c r="N238" s="7"/>
-      <c r="O238" s="7"/>
-      <c r="P238" s="7"/>
-      <c r="Q238" s="7"/>
-      <c r="R238" s="7"/>
-      <c r="S238" s="7"/>
-      <c r="T238" s="7"/>
-      <c r="U238" s="7"/>
-      <c r="V238" s="7"/>
-      <c r="W238" s="7"/>
-      <c r="X238" s="7"/>
-      <c r="Y238" s="7"/>
-      <c r="Z238" s="7"/>
-      <c r="AA238" s="7"/>
-      <c r="AB238" s="7"/>
-      <c r="AC238" s="7"/>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="7"/>
-      <c r="I239" s="7"/>
-      <c r="J239" s="7"/>
-      <c r="K239" s="7"/>
-      <c r="L239" s="7"/>
-      <c r="M239" s="7"/>
-      <c r="N239" s="7"/>
-      <c r="O239" s="7"/>
-      <c r="P239" s="7"/>
-      <c r="Q239" s="7"/>
-      <c r="R239" s="7"/>
-      <c r="S239" s="7"/>
-      <c r="T239" s="7"/>
-      <c r="U239" s="7"/>
-      <c r="V239" s="7"/>
-      <c r="W239" s="7"/>
-      <c r="X239" s="7"/>
-      <c r="Y239" s="7"/>
-      <c r="Z239" s="7"/>
-      <c r="AA239" s="7"/>
-      <c r="AB239" s="7"/>
-      <c r="AC239" s="7"/>
-    </row>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
     <row r="240" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
@@ -15727,17 +15227,6 @@
     <row r="1006" ht="15.75" customHeight="1"/>
     <row r="1007" ht="15.75" customHeight="1"/>
     <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
-    <row r="1013" ht="15.75" customHeight="1"/>
-    <row r="1014" ht="15.75" customHeight="1"/>
-    <row r="1015" ht="15.75" customHeight="1"/>
-    <row r="1016" ht="15.75" customHeight="1"/>
-    <row r="1017" ht="15.75" customHeight="1"/>
-    <row r="1018" ht="15.75" customHeight="1"/>
-    <row r="1019" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15759,29 +15248,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>96</v>
+      <c r="D1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -15806,26 +15295,26 @@
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="8">
         <v>1.0</v>
       </c>
-      <c r="C2" s="31">
-        <v>2.0</v>
+      <c r="C2" s="8">
+        <v>3.0</v>
       </c>
       <c r="D2" s="32">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" s="8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" s="8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G2" s="8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H2" s="8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -15848,9 +15337,9 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="30">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8">
         <v>2.0</v>
       </c>
       <c r="C3" s="8">
@@ -15892,21 +15381,21 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="30">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
         <v>3.0</v>
       </c>
       <c r="C4" s="8">
         <v>3.0</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="8">
         <v>3.0</v>
       </c>
       <c r="E4" s="32">
         <v>3.0</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="8">
         <v>3.0</v>
       </c>
       <c r="G4" s="8">
@@ -15936,28 +15425,28 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="30">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8">
         <v>4.0</v>
       </c>
       <c r="C5" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="31">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3.0</v>
       </c>
       <c r="E5" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="31">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3.0</v>
       </c>
       <c r="G5" s="8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H5" s="8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -15980,28 +15469,28 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="30">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8">
         <v>5.0</v>
       </c>
       <c r="C6" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="D6" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="E6" s="31">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.0</v>
       </c>
       <c r="F6" s="32">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G6" s="8">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H6" s="8">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -16024,28 +15513,28 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="30">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8">
         <v>6.0</v>
       </c>
       <c r="C7" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="E7" s="31">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.0</v>
       </c>
       <c r="F7" s="32">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G7" s="8">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H7" s="8">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -16068,21 +15557,21 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="30">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8">
         <v>7.0</v>
       </c>
       <c r="C8" s="8">
         <v>2.0</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="8">
         <v>2.0</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="8">
         <v>2.0</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="8">
         <v>2.0</v>
       </c>
       <c r="G8" s="32">
@@ -16112,21 +15601,21 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="30">
+        <v>35</v>
+      </c>
+      <c r="B9" s="8">
         <v>8.0</v>
       </c>
       <c r="C9" s="8">
         <v>1.0</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="8">
         <v>1.0</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="8">
         <v>1.0</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="8">
         <v>1.0</v>
       </c>
       <c r="G9" s="32">
@@ -16156,28 +15645,28 @@
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="30">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8">
         <v>9.0</v>
       </c>
       <c r="C10" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E10" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F10" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G10" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="31">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H10" s="32">
+        <v>2.0</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -16202,10 +15691,10 @@
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="8">
         <v>10.0</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="8">
         <v>3.0</v>
       </c>
       <c r="D11" s="8">
@@ -16243,29 +15732,33 @@
       <c r="Z11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="30">
-        <v>11.0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="H12" s="32">
-        <v>2.0</v>
+      <c r="A12" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34">
+        <f>SUM(C2:C11)</f>
+        <v>24</v>
+      </c>
+      <c r="D12" s="34">
+        <f>SUM(D2:D3)</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="34">
+        <f>SUM(E4:E5)</f>
+        <v>6</v>
+      </c>
+      <c r="F12" s="34">
+        <f>SUM(F6:F7)</f>
+        <v>4</v>
+      </c>
+      <c r="G12" s="34">
+        <f>SUM(G8:G10)</f>
+        <v>5</v>
+      </c>
+      <c r="H12" s="34">
+        <f>SUM(H10:H11)</f>
+        <v>5</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -16287,34 +15780,14 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35">
-        <f>SUM(C2:C12)</f>
-        <v>25</v>
-      </c>
-      <c r="D13" s="36">
-        <f>SUM(D2:D3)</f>
-        <v>5</v>
-      </c>
-      <c r="E13" s="36">
-        <f>SUM(E4:E5)</f>
-        <v>5</v>
-      </c>
-      <c r="F13" s="36">
-        <f>SUM(F6:F7)</f>
-        <v>6</v>
-      </c>
-      <c r="G13" s="36">
-        <f>SUM(G8:G10)</f>
-        <v>4</v>
-      </c>
-      <c r="H13" s="36">
-        <f>SUM(H10:H12)</f>
-        <v>6</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -21962,34 +21435,7 @@
       <c r="Y214" s="7"/>
       <c r="Z214" s="7"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="7"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="7"/>
-      <c r="G215" s="7"/>
-      <c r="H215" s="7"/>
-      <c r="I215" s="7"/>
-      <c r="J215" s="7"/>
-      <c r="K215" s="7"/>
-      <c r="L215" s="7"/>
-      <c r="M215" s="7"/>
-      <c r="N215" s="7"/>
-      <c r="O215" s="7"/>
-      <c r="P215" s="7"/>
-      <c r="Q215" s="7"/>
-      <c r="R215" s="7"/>
-      <c r="S215" s="7"/>
-      <c r="T215" s="7"/>
-      <c r="U215" s="7"/>
-      <c r="V215" s="7"/>
-      <c r="W215" s="7"/>
-      <c r="X215" s="7"/>
-      <c r="Y215" s="7"/>
-      <c r="Z215" s="7"/>
-    </row>
+    <row r="215" ht="15.75" customHeight="1"/>
     <row r="216" ht="15.75" customHeight="1"/>
     <row r="217" ht="15.75" customHeight="1"/>
     <row r="218" ht="15.75" customHeight="1"/>
@@ -22769,12 +22215,11 @@
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$H$13">
-    <sortState ref="A1:H13">
-      <sortCondition ref="A1:A13"/>
-      <sortCondition ref="B1:B13"/>
+  <autoFilter ref="$A$1:$H$12">
+    <sortState ref="A1:H12">
+      <sortCondition ref="A1:A12"/>
+      <sortCondition ref="B1:B12"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
